--- a/results/I3_N5_M2_T30_C100_DepCentral_s1_P4_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s1_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2392.184110038587</v>
+        <v>1833.400726831333</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.90152000794546</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.90472300251657</v>
+        <v>9.935004806263807</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.437313033157459</v>
+        <v>4.720264823079315</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1732.500000000002</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>628.2500000000001</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16.30463804208573</v>
+        <v>26.30463804208573</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.788310969284332</v>
+        <v>11.60181147454999</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.14572751044755</v>
+        <v>3.914294316987419</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.7906389553977</v>
+        <v>22.55409141525918</v>
       </c>
     </row>
     <row r="7">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.72026482307932</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1059,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1129,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1143,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1157,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1171,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1185,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1199,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1213,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1227,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -1241,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -1255,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
@@ -1363,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>184.6099999999994</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>178.8</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>176.6349999999994</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>174.7349999999994</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11">
@@ -1407,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>176.4799999999994</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12">
@@ -1418,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>40.77499999999971</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.87999999999971</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -1440,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>37.77499999999971</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.01499999999972</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>41.88499999999971</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -1473,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>62.88999999999913</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -1484,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>61.55999999999913</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -1495,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>54.16999999999913</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>56.28999999999913</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -1517,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>60.16999999999913</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1528,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.2750000000002</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
@@ -1539,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>100.4900000000002</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
@@ -1550,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>105.1950000000002</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25">
@@ -1561,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>111.0600000000002</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26">
@@ -1572,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>108.5200000000002</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27">
@@ -1583,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>196.2900000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -1594,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>186.2100000000006</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -1605,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>189.8600000000006</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
@@ -1616,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>200.6850000000006</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
@@ -1627,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>201.9450000000006</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -1638,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>196.2900000000006</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33">
@@ -1649,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>186.2100000000006</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34">
@@ -1660,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>189.8600000000006</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35">
@@ -1671,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>200.6850000000006</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36">
@@ -1682,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>201.9450000000006</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
@@ -1693,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>184.6099999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1704,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>178.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>176.6349999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1726,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>174.7349999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1737,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>176.4799999999994</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>96.29000000000059</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>86.2100000000006</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
@@ -1806,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>89.86000000000058</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
@@ -1817,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>100.6850000000006</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
@@ -1828,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>101.9450000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -1839,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>84.60999999999942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1850,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>78.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1861,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>76.63499999999942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1872,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>74.73499999999942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1883,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>76.47999999999942</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1941,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1952,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1963,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1974,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1985,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1996,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2007,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2018,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2029,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>22.18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -2051,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2062,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2084,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>22.575</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2095,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2106,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2117,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2150,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2161,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2172,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2183,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2194,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
